--- a/VT_REG2_PRI_V09.xlsx
+++ b/VT_REG2_PRI_V09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B9858-6A58-47A2-9F04-3C160FF53ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C621AF2-13A5-4A83-95DF-C63980BA812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -6713,9 +6713,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General_)"/>
-    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -7245,7 +7245,7 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7362,7 +7362,7 @@
     <xf numFmtId="1" fontId="19" fillId="9" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="7" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -7374,11 +7374,11 @@
     <xf numFmtId="1" fontId="17" fillId="7" borderId="18" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
@@ -7415,16 +7415,16 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="10" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7455,38 +7455,38 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10199,13 +10199,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="D5">
-            <v>5263.9327000000003</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="5">
           <cell r="D5">
@@ -10960,20 +10954,20 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="X1" s="25" t="s">
         <v>88</v>
       </c>
@@ -10987,7 +10981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="D2" s="53" t="s">
         <v>44</v>
@@ -11055,7 +11049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C3" s="100" t="s">
         <v>141</v>
       </c>
@@ -11117,7 +11111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C4" s="88" t="s">
         <v>57</v>
       </c>
@@ -11141,7 +11135,7 @@
       <c r="U4" s="89"/>
       <c r="V4" s="90"/>
     </row>
-    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
         <v>58</v>
       </c>
@@ -11226,7 +11220,7 @@
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
         <v>60</v>
       </c>
@@ -11310,7 +11304,7 @@
         <v>30829.056999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
@@ -11395,7 +11389,7 @@
       </c>
       <c r="X7" s="9"/>
     </row>
-    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="86" t="s">
         <v>130</v>
       </c>
@@ -11470,7 +11464,7 @@
         <v>38498.733749999999</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="58"/>
       <c r="C9" s="93" t="s">
         <v>64</v>
@@ -11495,7 +11489,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="94"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="55" t="s">
         <v>65</v>
       </c>
@@ -11579,7 +11573,7 @@
         <v>-1413.8625499999998</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="55" t="s">
         <v>50</v>
       </c>
@@ -11663,7 +11657,7 @@
         <v>-7391.674462500001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
         <v>68</v>
       </c>
@@ -11747,7 +11741,7 @@
         <v>31.441550000000063</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="55" t="s">
         <v>70</v>
       </c>
@@ -11831,7 +11825,7 @@
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="58"/>
       <c r="C14" s="59" t="s">
         <v>72</v>
@@ -11904,7 +11898,7 @@
         <v>-8974.9569625000022</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="D15" s="9"/>
       <c r="F15" s="9"/>
@@ -11916,7 +11910,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="D16" s="9"/>
       <c r="F16" s="9"/>
@@ -11928,7 +11922,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="C17" s="56" t="s">
         <v>122</v>
@@ -11944,7 +11938,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="D18" s="9"/>
       <c r="F18" s="9"/>
@@ -11956,7 +11950,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="D19" s="9"/>
       <c r="F19" s="9"/>
@@ -11968,7 +11962,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="D20" s="26" t="s">
         <v>44</v>
@@ -11987,7 +11981,7 @@
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="C21" s="27" t="s">
         <v>97</v>
@@ -12009,7 +12003,7 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="C22" s="29" t="s">
         <v>98</v>
@@ -12045,30 +12039,30 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="35" customWidth="1"/>
     <col min="5" max="5" width="12" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="35"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -12091,7 +12085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>70</v>
       </c>
@@ -12127,7 +12121,7 @@
       <c r="Q2" s="109"/>
       <c r="R2" s="109"/>
     </row>
-    <row r="3" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="H3" s="103"/>
       <c r="J3" s="110" t="s">
         <v>7</v>
@@ -12157,7 +12151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="37" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" s="37" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="43"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -12191,7 +12185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="42"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -12206,11 +12200,11 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -12231,7 +12225,7 @@
       <c r="Q8" s="109"/>
       <c r="R8" s="109"/>
     </row>
-    <row r="9" spans="2:18" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
@@ -12280,7 +12274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>39</v>
       </c>
@@ -12329,7 +12323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>85</v>
       </c>
@@ -12355,7 +12349,7 @@
       <c r="Q11" s="112"/>
       <c r="R11" s="112"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="str">
         <f>L12</f>
         <v>REFEOIL00</v>
@@ -12408,7 +12402,7 @@
       </c>
       <c r="R12" s="114"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D13" s="35" t="str">
         <f>'EB2'!H2</f>
         <v>KER</v>
@@ -12429,7 +12423,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="str">
@@ -12454,7 +12448,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="str">
@@ -12479,7 +12473,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38" t="str">
@@ -12504,7 +12498,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38" t="str">
@@ -12529,7 +12523,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38" t="str">
@@ -12554,7 +12548,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
@@ -12573,7 +12567,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E20" s="51"/>
       <c r="I20" s="38"/>
       <c r="J20" s="5"/>
@@ -12586,13 +12580,13 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -12609,47 +12603,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="81" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="81" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="126" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="127" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="127" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="127" t="s">
         <v>147</v>
       </c>
@@ -12657,7 +12651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="127" t="s">
         <v>149</v>
       </c>
@@ -12665,12 +12659,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="81" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D24" s="128" t="s">
         <v>132</v>
       </c>
@@ -12688,7 +12682,7 @@
       <c r="P24" s="130"/>
       <c r="Q24" s="101"/>
     </row>
-    <row r="25" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="102" t="s">
         <v>127</v>
       </c>
@@ -12705,7 +12699,7 @@
       <c r="P25" s="102"/>
       <c r="Q25" s="80"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M26" s="102" t="s">
         <v>129</v>
       </c>
@@ -12713,7 +12707,7 @@
       <c r="O26" s="102"/>
       <c r="P26" s="102"/>
     </row>
-    <row r="63" spans="13:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="13:17" x14ac:dyDescent="0.25">
       <c r="M63" s="80"/>
       <c r="N63" s="80"/>
       <c r="O63" s="80"/>
@@ -12738,28 +12732,28 @@
       <selection activeCell="E1" sqref="E1:F65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -12776,7 +12770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>'EB2'!D2</f>
@@ -12806,7 +12800,7 @@
       <c r="P2" s="109"/>
       <c r="Q2" s="109"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
@@ -12835,7 +12829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="I4" s="112" t="s">
         <v>37</v>
@@ -12865,7 +12859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I5" s="113" t="s">
         <v>73</v>
       </c>
@@ -12887,7 +12881,7 @@
       <c r="P5" s="113"/>
       <c r="Q5" s="113"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -12904,7 +12898,7 @@
       <c r="P7" s="115"/>
       <c r="Q7" s="115"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -12952,7 +12946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="5" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
@@ -12999,7 +12993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
@@ -13029,7 +13023,7 @@
       <c r="P10" s="116"/>
       <c r="Q10" s="116"/>
     </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="str">
         <f>K11</f>
         <v>MINCOA1</v>
@@ -13074,7 +13068,7 @@
       <c r="P11" s="114"/>
       <c r="Q11" s="114"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="str">
         <f>K12</f>
         <v>MINCOA2</v>
@@ -13117,7 +13111,7 @@
       <c r="Q12" s="114"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="str">
         <f>K13</f>
         <v>MINCOA3</v>
@@ -13158,7 +13152,7 @@
       <c r="P13" s="114"/>
       <c r="Q13" s="114"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>K14</f>
         <v>IMPCOA1</v>
@@ -13201,7 +13195,7 @@
       <c r="P14" s="114"/>
       <c r="Q14" s="114"/>
     </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="str">
         <f>K15</f>
         <v>EXPCOA1</v>
@@ -13244,12 +13238,12 @@
       <c r="Q15" s="114"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -13263,7 +13257,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -13276,7 +13270,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -13289,7 +13283,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>124</v>
@@ -13310,14 +13304,14 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
       <c r="C23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -13336,7 +13330,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -13354,7 +13348,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -13372,7 +13366,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -13390,7 +13384,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -13408,7 +13402,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -13426,7 +13420,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -13444,7 +13438,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="R32" s="5"/>
     </row>
   </sheetData>
@@ -13464,28 +13458,28 @@
       <selection activeCell="E1" sqref="E1:F65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -13502,7 +13496,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>'EB2'!E2</f>
@@ -13532,7 +13526,7 @@
       <c r="P2" s="109"/>
       <c r="Q2" s="109"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
@@ -13561,7 +13555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="I4" s="112" t="s">
         <v>37</v>
@@ -13591,7 +13585,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="I5" s="113" t="s">
         <v>73</v>
       </c>
@@ -13613,7 +13607,7 @@
       <c r="P5" s="113"/>
       <c r="Q5" s="113"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -13630,7 +13624,7 @@
       <c r="P7" s="115"/>
       <c r="Q7" s="115"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -13677,7 +13671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="5" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="5" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
@@ -13724,7 +13718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
@@ -13754,7 +13748,7 @@
       <c r="P10" s="116"/>
       <c r="Q10" s="116"/>
     </row>
-    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="str">
         <f>K11</f>
         <v>MINGAS1</v>
@@ -13799,7 +13793,7 @@
       <c r="P11" s="114"/>
       <c r="Q11" s="114"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="str">
         <f>K12</f>
         <v>MINGAS2</v>
@@ -13843,7 +13837,7 @@
       <c r="Q12" s="114"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="str">
         <f>K13</f>
         <v>MINGAS3</v>
@@ -13882,7 +13876,7 @@
       <c r="P13" s="114"/>
       <c r="Q13" s="114"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>K14</f>
         <v>IMPGAS1</v>
@@ -13922,7 +13916,7 @@
       <c r="P14" s="114"/>
       <c r="Q14" s="114"/>
     </row>
-    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="str">
         <f>K15</f>
         <v>EXPGAS1</v>
@@ -13966,19 +13960,19 @@
       <c r="Q15" s="114"/>
       <c r="R15"/>
     </row>
-    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="F16" s="74"/>
       <c r="G16" s="74"/>
     </row>
-    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="F17" s="74"/>
     </row>
-    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -13992,7 +13986,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -14004,7 +13998,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
@@ -14025,7 +14019,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -14033,7 +14027,7 @@
       <c r="H24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -14052,7 +14046,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -14069,7 +14063,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -14086,7 +14080,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -14103,7 +14097,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -14120,7 +14114,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -14137,7 +14131,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -14154,7 +14148,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -14171,7 +14165,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H34" s="5"/>
       <c r="R34" s="5"/>
     </row>
@@ -14188,32 +14182,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F65536"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -14230,7 +14224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>'EB2'!F2</f>
@@ -14260,7 +14254,7 @@
       <c r="P2" s="109"/>
       <c r="Q2" s="109"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I3" s="110" t="s">
         <v>7</v>
       </c>
@@ -14289,7 +14283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="I4" s="112" t="s">
         <v>37</v>
@@ -14321,7 +14315,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I5" s="113" t="s">
         <v>73</v>
       </c>
@@ -14348,14 +14342,14 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -14374,7 +14368,7 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -14421,7 +14415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
@@ -14469,7 +14463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:23" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
@@ -14502,7 +14496,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="str">
         <f>K11</f>
         <v>MINOIL1</v>
@@ -14547,7 +14541,7 @@
       <c r="P11" s="114"/>
       <c r="Q11" s="114"/>
     </row>
-    <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="str">
         <f>K12</f>
         <v>MINOIL2</v>
@@ -14589,7 +14583,7 @@
       <c r="P12" s="114"/>
       <c r="Q12" s="114"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="str">
         <f>K13</f>
         <v>MINOIL3</v>
@@ -14634,7 +14628,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>K14</f>
         <v>IMPOIL1</v>
@@ -14679,7 +14673,7 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="str">
         <f>K15</f>
         <v>EXPOIL1</v>
@@ -14724,7 +14718,7 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="F16" s="74"/>
@@ -14734,7 +14728,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="F17" s="74"/>
       <c r="S17"/>
@@ -14743,21 +14737,21 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S18"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S19" s="1"/>
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -14769,7 +14763,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -14782,7 +14776,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -14804,42 +14798,42 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="5"/>
     </row>
   </sheetData>
@@ -14859,28 +14853,28 @@
       <selection activeCell="E1" sqref="E1:G65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="35"/>
+    <col min="17" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -14897,7 +14891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>'EB2'!O2</f>
@@ -14927,7 +14921,7 @@
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
     </row>
-    <row r="3" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="str">
         <f>'EB2'!P2</f>
         <v>HYD</v>
@@ -14968,7 +14962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="str">
         <f>'EB2'!Q2</f>
@@ -15010,7 +15004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="str">
         <f>'EB2'!R2</f>
         <v>SOL</v>
@@ -15044,7 +15038,7 @@
       <c r="O5" s="113"/>
       <c r="P5" s="113"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -15067,7 +15061,7 @@
       <c r="O6" s="113"/>
       <c r="P6" s="113"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="H7" s="113"/>
@@ -15089,7 +15083,7 @@
       <c r="O7" s="113"/>
       <c r="P7" s="113"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="H8" s="113"/>
@@ -15111,7 +15105,7 @@
       <c r="O8" s="113"/>
       <c r="P8" s="113"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
@@ -15128,7 +15122,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="115"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -15172,7 +15166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>39</v>
       </c>
@@ -15216,7 +15210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" s="37" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>85</v>
       </c>
@@ -15244,7 +15238,7 @@
       <c r="P13" s="116"/>
       <c r="Q13" s="35"/>
     </row>
-    <row r="14" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>J14</f>
         <v>MINBIO1</v>
@@ -15283,7 +15277,7 @@
       <c r="O14" s="114"/>
       <c r="P14" s="114"/>
     </row>
-    <row r="15" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="str">
         <f>J15</f>
         <v>MINHYD1</v>
@@ -15317,7 +15311,7 @@
       <c r="O15" s="114"/>
       <c r="P15" s="114"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="str">
         <f>J16</f>
         <v>MINWIN1</v>
@@ -15353,7 +15347,7 @@
       <c r="P16" s="114"/>
       <c r="Q16" s="37"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="str">
         <f>J17</f>
         <v>MINSOL1</v>
@@ -15387,7 +15381,7 @@
       <c r="O17" s="114"/>
       <c r="P17" s="114"/>
     </row>
-    <row r="18" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="5"/>
@@ -15405,7 +15399,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="35"/>
     </row>
-    <row r="19" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -15419,7 +15413,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="66"/>
       <c r="C20" s="1" t="s">
         <v>124</v>
@@ -15439,7 +15433,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
       <c r="C21" s="1" t="s">
         <v>125</v>
@@ -15457,7 +15451,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:17" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -15475,7 +15469,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="35"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -15493,7 +15487,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="36"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -15504,7 +15498,7 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -15520,7 +15514,7 @@
       <c r="P25"/>
       <c r="Q25" s="35"/>
     </row>
-    <row r="26" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -15534,7 +15528,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -15550,35 +15544,35 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G28" s="37"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="38"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="38"/>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G40" s="38"/>
     </row>
   </sheetData>
@@ -15598,28 +15592,28 @@
       <selection activeCell="E1" sqref="E1:G65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="35"/>
+    <col min="17" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -15636,7 +15630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="15" t="str">
         <f>'EB2'!N2</f>
@@ -15666,7 +15660,7 @@
       <c r="O2" s="109"/>
       <c r="P2" s="109"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E3" s="14"/>
       <c r="H3" s="110" t="s">
         <v>7</v>
@@ -15696,7 +15690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="H4" s="112" t="s">
         <v>37</v>
@@ -15726,7 +15720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H5" s="113" t="s">
         <v>73</v>
       </c>
@@ -15748,7 +15742,7 @@
       <c r="O5" s="113"/>
       <c r="P5" s="113"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
@@ -15765,7 +15759,7 @@
       <c r="O7" s="115"/>
       <c r="P7" s="115"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -15809,7 +15803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>39</v>
       </c>
@@ -15853,7 +15847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" s="37" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>85</v>
       </c>
@@ -15881,7 +15875,7 @@
       <c r="P10" s="116"/>
       <c r="Q10" s="35"/>
     </row>
-    <row r="11" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="str">
         <f>J11</f>
         <v>MINNUC1</v>
@@ -15920,7 +15914,7 @@
       <c r="O11" s="114"/>
       <c r="P11" s="114"/>
     </row>
-    <row r="12" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -15936,7 +15930,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -15954,7 +15948,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="37"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -15970,7 +15964,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -15986,7 +15980,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="5"/>
@@ -16004,7 +15998,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="35"/>
     </row>
-    <row r="17" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -16020,7 +16014,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -16038,7 +16032,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="37"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -16054,7 +16048,7 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:17" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" s="36" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -16072,7 +16066,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="35"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -16090,7 +16084,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="36"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -16101,7 +16095,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>124</v>
@@ -16121,7 +16115,7 @@
       <c r="P23"/>
       <c r="Q23" s="35"/>
     </row>
-    <row r="24" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
       <c r="C24" s="1" t="s">
         <v>125</v>
@@ -16139,7 +16133,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -16155,35 +16149,35 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G30" s="38"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G32" s="38"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="38"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G38" s="38"/>
     </row>
   </sheetData>
@@ -16203,28 +16197,28 @@
       <selection activeCell="E1" sqref="E1:G65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="35" customWidth="1"/>
     <col min="7" max="7" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="35" customWidth="1"/>
     <col min="13" max="13" width="11" style="35" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="35"/>
+    <col min="14" max="14" width="13.109375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -16241,7 +16235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
@@ -16273,7 +16267,7 @@
       <c r="O2" s="119"/>
       <c r="P2" s="119"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="str">
         <f>'EB2'!H$2</f>
         <v>KER</v>
@@ -16314,7 +16308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="15" t="str">
         <f>'EB2'!I$2</f>
         <v>LPG</v>
@@ -16357,7 +16351,7 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="str">
         <f>'EB2'!J$2</f>
         <v>GSL</v>
@@ -16396,7 +16390,7 @@
       <c r="U5" s="37"/>
       <c r="V5" s="37"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="str">
         <f>'EB2'!K$2</f>
         <v>NAP</v>
@@ -16433,7 +16427,7 @@
       <c r="U6" s="37"/>
       <c r="V6" s="37"/>
     </row>
-    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="str">
         <f>'EB2'!L$2</f>
         <v>HFO</v>
@@ -16469,7 +16463,7 @@
       <c r="U7" s="37"/>
       <c r="V7" s="37"/>
     </row>
-    <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="15" t="str">
         <f>'EB2'!M$2</f>
         <v>OPP</v>
@@ -16503,7 +16497,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H9" s="122"/>
       <c r="I9" s="123"/>
       <c r="J9" s="122" t="str">
@@ -16525,7 +16519,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
-    <row r="10" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -16553,7 +16547,7 @@
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
     </row>
-    <row r="11" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H11" s="122"/>
       <c r="I11" s="123"/>
       <c r="J11" s="122" t="str">
@@ -16574,7 +16568,7 @@
       <c r="P11" s="122"/>
       <c r="Q11" s="35"/>
     </row>
-    <row r="12" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -16586,7 +16580,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
@@ -16606,7 +16600,7 @@
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
@@ -16653,7 +16647,7 @@
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
     </row>
-    <row r="15" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
@@ -16699,7 +16693,7 @@
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
     </row>
-    <row r="16" spans="2:22" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" s="37" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>85</v>
       </c>
@@ -16730,7 +16724,7 @@
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
     </row>
-    <row r="17" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="str">
         <f t="shared" ref="B17:B30" si="2">J17</f>
         <v>IMPDSL1</v>
@@ -16771,7 +16765,7 @@
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
     </row>
-    <row r="18" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="str">
         <f t="shared" si="2"/>
         <v>IMPKER1</v>
@@ -16808,7 +16802,7 @@
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
     </row>
-    <row r="19" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="str">
         <f t="shared" si="2"/>
         <v>IMPLPG1</v>
@@ -16845,7 +16839,7 @@
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
     </row>
-    <row r="20" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="str">
         <f t="shared" si="2"/>
         <v>IMPGSL1</v>
@@ -16882,7 +16876,7 @@
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
     </row>
-    <row r="21" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="44" t="str">
         <f t="shared" si="2"/>
         <v>IMPNAP1</v>
@@ -16921,7 +16915,7 @@
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
     </row>
-    <row r="22" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="str">
         <f t="shared" si="2"/>
         <v>IMPHFO1</v>
@@ -16960,7 +16954,7 @@
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="44" t="str">
         <f t="shared" si="2"/>
         <v>IMPOPP1</v>
@@ -16996,7 +16990,7 @@
       <c r="P23" s="123"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPDSL1</v>
@@ -17038,7 +17032,7 @@
       <c r="Q24" s="37"/>
       <c r="S24" s="36"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPKER1</v>
@@ -17076,7 +17070,7 @@
       <c r="P25" s="123"/>
       <c r="R25" s="36"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPLPG1</v>
@@ -17114,7 +17108,7 @@
       <c r="P26" s="123"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPGSL1</v>
@@ -17152,7 +17146,7 @@
       <c r="P27" s="123"/>
       <c r="Q27" s="37"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPNAP1</v>
@@ -17190,7 +17184,7 @@
       <c r="P28" s="124"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPHFO1</v>
@@ -17228,7 +17222,7 @@
       <c r="P29" s="124"/>
       <c r="Q29" s="37"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="44" t="str">
         <f t="shared" si="2"/>
         <v>EXPOPP1</v>
@@ -17265,20 +17259,20 @@
       <c r="O30" s="124"/>
       <c r="P30" s="124"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="48"/>
       <c r="F31" s="40"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="66"/>
       <c r="C35" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="72"/>
       <c r="C36" s="1" t="s">
         <v>125</v>
@@ -17301,28 +17295,28 @@
       <selection activeCell="E1" sqref="E1:G65536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="35" customWidth="1"/>
     <col min="7" max="7" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="35" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="35"/>
+    <col min="17" max="16384" width="9.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
         <v>74</v>
       </c>
@@ -17339,7 +17333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
@@ -17371,7 +17365,7 @@
       <c r="O2" s="119"/>
       <c r="P2" s="119"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="H3" s="120" t="s">
@@ -17402,7 +17396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="H4" s="112" t="s">
@@ -17435,7 +17429,7 @@
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="H5" s="44"/>
@@ -17453,7 +17447,7 @@
       <c r="U5" s="37"/>
       <c r="V5" s="37"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="H6" s="44"/>
@@ -17471,7 +17465,7 @@
       <c r="U6" s="37"/>
       <c r="V6" s="37"/>
     </row>
-    <row r="7" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -17483,7 +17477,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
     </row>
-    <row r="8" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -17495,7 +17489,7 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
     </row>
-    <row r="9" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
@@ -17507,7 +17501,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
     </row>
-    <row r="10" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -17519,7 +17513,7 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -17539,7 +17533,7 @@
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>1</v>
       </c>
@@ -17586,7 +17580,7 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
     </row>
-    <row r="13" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>39</v>
       </c>
@@ -17632,7 +17626,7 @@
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
     </row>
-    <row r="14" spans="2:22" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" s="37" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -17662,7 +17656,7 @@
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
     </row>
-    <row r="15" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="str">
         <f>J15</f>
         <v>IMPELC1</v>
@@ -17707,7 +17701,7 @@
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="str">
         <f>J16</f>
         <v>EXPELC1</v>
@@ -17749,13 +17743,13 @@
       <c r="P16" s="123"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="78"/>
       <c r="C21" s="36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="87"/>
       <c r="C22" s="36" t="s">
         <v>125</v>
